--- a/BOM food computer.xlsx
+++ b/BOM food computer.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camille\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27226"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Motherboard" sheetId="1" r:id="rId1"/>
@@ -17,13 +12,17 @@
     <sheet name="Kit" sheetId="3" r:id="rId3"/>
     <sheet name="Tools" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="193">
   <si>
     <t>Item Name</t>
   </si>
@@ -584,6 +583,24 @@
   </si>
   <si>
     <t>measure out fertilizers, yeast, and sugar</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Uno</t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>Tentative</t>
   </si>
 </sst>
 </file>
@@ -871,7 +888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,7 +923,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1083,7 +1100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1091,23 +1108,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,8 +1143,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1158,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/CyberPower-CSB606-Protector-6-Outlets-Joules/dp/B00FLTTGYG/ref=pd_sim_23_1?ie=UTF8&amp;refRID=163NC2W6A2KW7EF2RB9B","Power Strip")</f>
         <v>Power Strip</v>
@@ -1158,8 +1179,11 @@
         <f t="shared" ref="F3:F5" si="0">E3*D3</f>
         <v>10.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Switching-Power-Supply-Strip-Light/dp/B007MWNF5Q/ref=pd_sim_60_6?ie=UTF8&amp;refRID=0WA6QTYVKRWRGRG1ZKN2A","Main Power Supply")</f>
         <v>Main Power Supply</v>
@@ -1180,8 +1204,11 @@
         <f t="shared" si="0"/>
         <v>24.96</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24">
       <c r="A5" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B0002J1KS0/ref=ox_sc_act_title_1?ie=UTF8&amp;psc=1&amp;smid=ATVPDKIKX0DER","AC Extension Cable")</f>
         <v>AC Extension Cable</v>
@@ -1202,8 +1229,11 @@
         <f t="shared" si="0"/>
         <v>4.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1213,7 +1243,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/CanaKit-Raspberry-Power-Supply-Listed/dp/B00MARDJZ4/ref=sr_1_2?ie=UTF8&amp;qid=1439988175&amp;sr=8-2&amp;keywords=raspberry+pi+2+power+supply","Raspberry Pi Power Supply")</f>
         <v>Raspberry Pi Power Supply</v>
@@ -1234,8 +1264,11 @@
         <f t="shared" ref="F7:F10" si="1">E7*D7</f>
         <v>9.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Ximico-Arduino-Cable-Atmega2560-16au-Compatible/dp/B00KG3SBE8/ref=sr_1_2?s=pc&amp;ie=UTF8&amp;qid=1439935660&amp;sr=1-2&amp;keywords=arduino+mega","Arduino Mega 2560")</f>
         <v>Arduino Mega 2560</v>
@@ -1256,8 +1289,11 @@
         <f t="shared" si="1"/>
         <v>14.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Raspberry-Pi-Model-Desktop-Linux/dp/B00T2U7R7I","Raspberry Pi 2 Model B")</f>
         <v>Raspberry Pi 2 Model B</v>
@@ -1278,8 +1314,11 @@
         <f t="shared" si="1"/>
         <v>41.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Kingston-microSDHC-Memory-SDC4-8GBET/dp/B00200K1TS/ref=sr_1_8?s=pc&amp;ie=UTF8&amp;qid=1439988385&amp;sr=1-8&amp;keywords=micro+SD","Micro SD Card")</f>
         <v>Micro SD Card</v>
@@ -1300,8 +1339,11 @@
         <f t="shared" si="1"/>
         <v>3.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B00EUHRLF6/ref=ox_sc_imb_mini_detail?ie=UTF8&amp;psc=1&amp;smid=A1DCPNQKKEISZB","Ethernet cable")</f>
         <v>Ethernet cable</v>
@@ -1319,8 +1361,11 @@
       <c r="F11" s="15">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24">
       <c r="A12" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Gikfun-Protoshield-Prototype-Shield-Arduino/dp/B00Q9YBQ04/ref=sr_1_6?s=pc&amp;ie=UTF8&amp;qid=1439935499&amp;sr=1-6&amp;keywords=protoshield","Arduino Mega Protoshield")</f>
         <v>Arduino Mega Protoshield</v>
@@ -1341,8 +1386,11 @@
         <f t="shared" ref="F12:F15" si="2">E12*D12</f>
         <v>8.99</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="str">
         <f>HYPERLINK("http://www.seeedstudio.com/depot/Base-Shield-V2-p-1378.html","Grove Base Shield")</f>
         <v>Grove Base Shield</v>
@@ -1363,8 +1411,11 @@
         <f t="shared" si="2"/>
         <v>8.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="str">
         <f>HYPERLINK("https://www.adafruit.com/products/2097","Touchscreen Display")</f>
         <v>Touchscreen Display</v>
@@ -1385,8 +1436,11 @@
         <f t="shared" si="2"/>
         <v>44.95</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/ribbon-cable-Raspberry-stackable-header/dp/B00G84WNA2/ref=sr_1_1?ie=UTF8&amp;qid=1440708449&amp;sr=8-1&amp;keywords=raspberry+pi+cable","GPIO Cable ")</f>
         <v xml:space="preserve">GPIO Cable </v>
@@ -1407,8 +1461,11 @@
         <f t="shared" si="2"/>
         <v>3.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1418,7 +1475,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/JBtek-Channel-Module-Arduino-Raspberry/dp/B00KTEN3TM/ref=sr_1_1?s=pc&amp;ie=UTF8&amp;qid=1439935182&amp;sr=1-1&amp;keywords=4+Channel+Relay","4-Channel Relay")</f>
         <v>4-Channel Relay</v>
@@ -1439,8 +1496,11 @@
         <f t="shared" ref="F17:F21" si="3">E17*D17</f>
         <v>13.96</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24">
       <c r="A18" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/52171-4E-Pre-Galvanized-Eccentric-Knockouts/dp/B000HEFCKC/ref=pd_bxgy_60_text_y","AC Relay Box Back Receptacle")</f>
         <v>AC Relay Box Back Receptacle</v>
@@ -1461,8 +1521,11 @@
         <f t="shared" si="3"/>
         <v>2.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/RS8-Outlet-Surface-Square-Galvanized/dp/B000HEIU9W/ref=pd_sim_60_23?ie=UTF8&amp;refRID=0C95J370DWVEWW0H1MG8","AC Relay Box Front Panel")</f>
         <v>AC Relay Box Front Panel</v>
@@ -1483,8 +1546,11 @@
         <f t="shared" si="3"/>
         <v>4.92</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24">
       <c r="A20" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Leviton-T5320-W-Resistant-Receptacle-Residential/dp/B0015R9M2Y/ref=pd_bxgy_60_img_z","AC Plug")</f>
         <v>AC Plug</v>
@@ -1505,8 +1571,11 @@
         <f t="shared" si="3"/>
         <v>2.38</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24">
       <c r="A21" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B0002J1KS0/ref=ox_sc_act_title_1?ie=UTF8&amp;psc=1&amp;smid=ATVPDKIKX0DER","AC Extension Cable")</f>
         <v>AC Extension Cable</v>
@@ -1527,8 +1596,11 @@
         <f t="shared" si="3"/>
         <v>4.99</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -1538,7 +1610,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="24">
       <c r="A23" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Triangle-Bulbs-T93007-Waterproof-Flexible/dp/B005EHHLD8/ref=sr_1_1?ie=UTF8&amp;qid=1443799060&amp;sr=8-1&amp;keywords=waterproof+led+strip","White LED Strip")</f>
         <v>White LED Strip</v>
@@ -1560,7 +1632,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Erligpowht-Indoor-Garden-Plant-Hanging/dp/B00S2DPYQM/ref=sr_1_fkmr2_2?ie=UTF8&amp;qid=1443799150&amp;sr=8-2-fkmr2&amp;keywords=grow+led+panel+erwl","Grow LED Panel")</f>
         <v>Grow LED Panel</v>
@@ -1582,7 +1654,7 @@
         <v>75.98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>80</v>
       </c>
@@ -1592,7 +1664,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/dp/B003XDTWN2/ref=sr_ph?&amp;ie=UTF8&amp;qid=1440085101&amp;sr=1&amp;keywords=heater","Heater")</f>
         <v>Heater</v>
@@ -1613,8 +1685,11 @@
         <f t="shared" ref="F26:F31" si="5">E26*D26</f>
         <v>15.99</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24">
       <c r="A27" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Acoustic-Audio-Tek%C2%A8Portable-Humidifier-travel--White/dp/B00RM5Z44S/ref=sr_1_4?s=home-garden&amp;ie=UTF8&amp;qid=1440427700&amp;sr=1-4&amp;keywords=bottle+cap+humidifier","Humidifier")</f>
         <v>Humidifier</v>
@@ -1635,8 +1710,11 @@
         <f t="shared" si="5"/>
         <v>7.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/dp/B00WJW3NM4/ref=twister_B00WJW3M3Y?_encoding=UTF8&amp;psc=1","USB Wall Adapter")</f>
         <v>USB Wall Adapter</v>
@@ -1657,8 +1735,11 @@
         <f t="shared" si="5"/>
         <v>7.99</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Bgears-b-Blaster-120mm-Bearing-Extreme/dp/B0043GKY1W/ref=sr_1_1?ie=UTF8&amp;qid=1440020490&amp;sr=8-1&amp;keywords=bgears+120mm","Circulation/Vent Fans")</f>
         <v>Circulation/Vent Fans</v>
@@ -1679,8 +1760,11 @@
         <f t="shared" si="5"/>
         <v>25.86</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Tjernlund-1519003-Wire-Fan-Guard/dp/B008RMKFTO/ref=sr_1_2?ie=UTF8&amp;qid=1440019946&amp;sr=8-2&amp;keywords=fan+guard","Fan Guards")</f>
         <v>Fan Guards</v>
@@ -1701,8 +1785,11 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Dundas-Jafine-LC4WZW-ProVent-4-Inches/dp/B0016487CC/ref=sr_1_3?ie=UTF8&amp;qid=1440020385&amp;sr=8-3&amp;keywords=Louvered+Vent+Cap","Fan Louvres")</f>
         <v>Fan Louvres</v>
@@ -1723,8 +1810,11 @@
         <f t="shared" si="5"/>
         <v>13.68</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -1734,7 +1824,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="24">
       <c r="A33" s="6" t="str">
         <f>HYPERLINK("http://www.co2meter.com/products/cozir-0-2-co2-sensor","CO2 Sensor")</f>
         <v>CO2 Sensor</v>
@@ -1755,8 +1845,11 @@
         <f t="shared" ref="F33:F36" si="6">E33*D33</f>
         <v>109</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24">
       <c r="A34" s="6" t="str">
         <f>HYPERLINK("http://www.seeedstudio.com/depot/Grove-TemperatureHumidity-Sensor-Pro-p-838.html","Air Temperature and Humidity Sensor")</f>
         <v>Air Temperature and Humidity Sensor</v>
@@ -1777,8 +1870,11 @@
         <f t="shared" si="6"/>
         <v>14.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="6" t="str">
         <f>HYPERLINK("http://www.seeedstudio.com/depot/Grove-Digital-Light-Sensor-p-1281.html","Light Intensity Sensor")</f>
         <v>Light Intensity Sensor</v>
@@ -1799,8 +1895,11 @@
         <f t="shared" si="6"/>
         <v>9.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24">
       <c r="A36" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B00YCDHQ8K?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o06_s00","Webcam")</f>
         <v>Webcam</v>
@@ -1821,8 +1920,11 @@
         <f t="shared" si="6"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -1832,7 +1934,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B0009SUF08?keywords=reed%20switch&amp;qid=1443805349&amp;ref_=sr_1_1&amp;sr=8-1","Magnetic Switch")</f>
         <v>Magnetic Switch</v>
@@ -1853,8 +1955,11 @@
         <f t="shared" ref="F38:F39" si="7">E38*D38</f>
         <v>7.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Micro-Limit-Switch-Roller-Action/dp/B00E0JOTV8/ref=sr_1_1?s=lamps-light&amp;ie=UTF8&amp;qid=1443805532&amp;sr=1-1&amp;keywords=limit+switch","Limit Switch")</f>
         <v>Limit Switch</v>
@@ -1875,8 +1980,11 @@
         <f t="shared" si="7"/>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
@@ -1886,7 +1994,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B0009YJ4N6?psc=1&amp;redirect=true&amp;ref_=ox_sc_act_title_1&amp;smid=ATVPDKIKX0DER","Air Pump")</f>
         <v>Air Pump</v>
@@ -1908,7 +2016,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Jardin-Aquarium-Ceramic-Diffusers-Diameter/dp/B0050HJ7Q6/ref=pd_bxgy_199_img_z","Air Stone")</f>
         <v>Air Stone</v>
@@ -1930,7 +2038,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Standard-Airline-Tubing-Accessories-25-Feet/dp/B0002563MW/ref=pd_bxgy_199_img_y","Air Pump Tubing")</f>
         <v>Air Pump Tubing</v>
@@ -1952,7 +2060,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="24">
       <c r="A44" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B00EWENMAU?psc=1&amp;redirect=true&amp;ref_=ox_sc_act_title_2&amp;smid=A14L9DIA3NK9B0","Aquarium Pump")</f>
         <v>Aquarium Pump</v>
@@ -1974,7 +2082,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B0079QUTSQ?psc=1&amp;redirect=true&amp;ref_=ox_sc_act_title_1&amp;smid=ATVPDKIKX0DER","Pump Tubing")</f>
         <v>Pump Tubing</v>
@@ -1996,7 +2104,7 @@
         <v>14.39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>104</v>
       </c>
@@ -2006,7 +2114,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="6" t="str">
         <f>HYPERLINK("http://www.dfrobot.com/index.php?route=product/product&amp;product_id=1123&amp;search=DFR0300#.VdTDoFNViko","Water Temperature and EC Sensor")</f>
         <v>Water Temperature and EC Sensor</v>
@@ -2027,8 +2135,11 @@
         <f t="shared" ref="F47:F48" si="9">E47*D47</f>
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="6" t="str">
         <f>HYPERLINK("http://www.dfrobot.com/index.php?route=product/product&amp;product_id=1025#.Vg60SBNViko","pH Sensor")</f>
         <v>pH Sensor</v>
@@ -2049,8 +2160,11 @@
         <f t="shared" si="9"/>
         <v>29.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>108</v>
       </c>
@@ -2060,7 +2174,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="24">
       <c r="A50" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B00BL63ZU4?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o01_s00","Cable Management Box")</f>
         <v>Cable Management Box</v>
@@ -2081,8 +2195,11 @@
         <f>E50*D50</f>
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2090,7 +2207,7 @@
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
@@ -2100,7 +2217,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="24">
       <c r="A53" s="6" t="str">
         <f>HYPERLINK("C2G / Cables To Go 53408 18 AWG Outlet Saver Power Extension Cord for NEMA 5-15P to NEMA 5-15R, Black (12 Feet/3.65 Meters)","Sacrificial AC Extension Cable for high gauge wire")</f>
         <v>Sacrificial AC Extension Cable for high gauge wire</v>
@@ -2121,8 +2238,11 @@
         <f t="shared" ref="F53:F55" si="10">E53*D53</f>
         <v>10.93</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Wago-222-412-222-413-Lever-Nut-Assortment/dp/B00U4520JK/ref=sr_1_1?ie=UTF8&amp;qid=1443798480&amp;sr=8-1&amp;keywords=wago+lever+nut+assortment","Wago Lever Nut Assortment")</f>
         <v>Wago Lever Nut Assortment</v>
@@ -2143,8 +2263,11 @@
         <f t="shared" si="10"/>
         <v>39.99</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="24">
       <c r="A55" s="6" t="str">
         <f>HYPERLINK("http://www.amazon.com/Vktech-150pcs-Shrink-Tubing-Sleeving/dp/B00EXLPLTW/ref=sr_1_2?ie=UTF8&amp;qid=1440019080&amp;sr=8-2&amp;keywords=vktech+heat+shrink","Heat Shrink Tubing")</f>
         <v>Heat Shrink Tubing</v>
@@ -2165,8 +2288,11 @@
         <f t="shared" si="10"/>
         <v>6.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="6" t="str">
         <f>HYPERLINK("http://www.seeedstudio.com/depot/Grove-c-98_106_57/?ref=crumb","Grove Cables")</f>
         <v>Grove Cables</v>
@@ -2180,8 +2306,11 @@
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="8" t="s">
@@ -2191,7 +2320,7 @@
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="24" t="str">
         <f>HYPERLINK("http://www.homedepot.com/p/3M-Scotch-1-in-x-12-5-yds-Indoor-Outdoor-Mounting-Tape-411-LONG-DC/100153200","Foam mounting tape")</f>
         <v>Foam mounting tape</v>
@@ -2212,8 +2341,11 @@
         <f t="shared" ref="F58:F62" si="11">E58*D58</f>
         <v>15.97</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="24" t="str">
         <f>HYPERLINK("http://www.amazon.com/3M-Electrical-75-Inch-66-Foot-0085-Inch/dp/B00004WCCP/ref=sr_1_1?s=industrial&amp;ie=UTF8&amp;qid=1443807012&amp;sr=1-1&amp;keywords=electrical+tape","Electrical Tape")</f>
         <v>Electrical Tape</v>
@@ -2234,8 +2366,11 @@
         <f t="shared" si="11"/>
         <v>3.98</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="24" t="str">
         <f>HYPERLINK("http://www.digikey.com/product-search/en?KeyWords=377-2132-ND&amp;WT.z_header=search_go","Air Exchange Box")</f>
         <v>Air Exchange Box</v>
@@ -2256,8 +2391,11 @@
         <f t="shared" si="11"/>
         <v>29.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="24" t="str">
         <f>HYPERLINK("http://www.homedepot.com/p/Everbilt-6-x-1-2-in-Stainless-Steel-Pan-Head-Phillips-Sheet-Metal-Screw-50-per-Pack-800162/204275035","Short Screws")</f>
         <v>Short Screws</v>
@@ -2278,8 +2416,11 @@
         <f t="shared" si="11"/>
         <v>5.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="24" t="str">
         <f>HYPERLINK("http://www.homedepot.com/p/Everbilt-8-x-2-in-Zinc-Plated-Pan-Head-Phillips-Drive-Sheet-Metal-Screw-50-Piece-801632/204275094","Long Screws")</f>
         <v>Long Screws</v>
@@ -2300,8 +2441,11 @@
         <f t="shared" si="11"/>
         <v>3.51</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
@@ -2322,6 +2466,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2331,18 +2480,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2368,7 +2517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2393,7 +2542,7 @@
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2418,7 +2567,7 @@
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2443,7 +2592,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2468,7 +2617,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2493,7 +2642,7 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2518,7 +2667,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2543,7 +2692,7 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2568,7 +2717,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2593,7 +2742,7 @@
       </c>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2618,7 +2767,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2643,7 +2792,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2668,7 +2817,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2693,7 +2842,7 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2718,7 +2867,7 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2745,7 +2894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2770,7 +2919,7 @@
       </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2795,7 +2944,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2820,7 +2969,7 @@
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2845,7 +2994,7 @@
       </c>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2870,7 +3019,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2885,7 +3034,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2895,7 +3044,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2905,7 +3054,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2915,35 +3064,35 @@
       <c r="G25" s="21"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12">
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12">
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12">
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:7" ht="12">
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
@@ -2971,6 +3120,11 @@
     <hyperlink ref="E21" r:id="rId20" display="http://www.homedepot.com/p/Frost-King-E-O-9-16-in-x-5-16-in-x-10-ft-Gray-EPDM-Cellular-Rubber-Weatherstrip-Tape-V27GA/100546771"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2980,19 +3134,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="68.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -3017,7 +3171,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -3046,7 +3200,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -3075,7 +3229,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -3104,7 +3258,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -3133,7 +3287,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -3162,7 +3316,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -3191,7 +3345,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -3220,7 +3374,7 @@
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -3249,7 +3403,7 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -3278,7 +3432,7 @@
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -3307,7 +3461,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -3336,7 +3490,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -3365,7 +3519,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -3394,7 +3548,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -3413,7 +3567,7 @@
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -3427,7 +3581,7 @@
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -3441,7 +3595,7 @@
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -3455,7 +3609,7 @@
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -3486,6 +3640,11 @@
     <hyperlink ref="E14" r:id="rId13" display="http://www.amazon.com/Good-Cook-Classic-Plastic-Measuring/dp/B000BQKVQ6/ref=sr_1_cc_2?s=aps&amp;ie=UTF8&amp;qid=1445015255&amp;sr=1-2-catcorr&amp;keywords=plastic+measuring+spoons"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3497,14 +3656,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>129</v>
       </c>
@@ -3516,7 +3675,7 @@
       </c>
       <c r="D1" s="42"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
@@ -3528,7 +3687,7 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="44" t="s">
         <v>139</v>
       </c>
@@ -3540,7 +3699,7 @@
       </c>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="43" t="s">
         <v>146</v>
       </c>
@@ -3550,7 +3709,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="42"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>148</v>
       </c>
@@ -3560,7 +3719,7 @@
       <c r="C5" s="45"/>
       <c r="D5" s="42"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>150</v>
       </c>
@@ -3570,7 +3729,7 @@
       <c r="C6" s="45"/>
       <c r="D6" s="42"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="43" t="s">
         <v>152</v>
       </c>
@@ -3578,7 +3737,7 @@
       <c r="C7" s="45"/>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>153</v>
       </c>
@@ -3586,7 +3745,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="42"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
         <v>154</v>
       </c>
@@ -3594,7 +3753,7 @@
       <c r="C9" s="45"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="43" t="s">
         <v>155</v>
       </c>
@@ -3602,7 +3761,7 @@
       <c r="C10" s="45"/>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>156</v>
       </c>
@@ -3610,7 +3769,7 @@
       <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="43" t="s">
         <v>157</v>
       </c>
@@ -3618,7 +3777,7 @@
       <c r="C12" s="45"/>
       <c r="D12" s="42"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="43" t="s">
         <v>158</v>
       </c>
@@ -3626,7 +3785,7 @@
       <c r="C13" s="45"/>
       <c r="D13" s="42"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="43" t="s">
         <v>159</v>
       </c>
@@ -3634,7 +3793,7 @@
       <c r="C14" s="45"/>
       <c r="D14" s="42"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="43" t="s">
         <v>160</v>
       </c>
@@ -3642,7 +3801,7 @@
       <c r="C15" s="45"/>
       <c r="D15" s="42"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="43" t="s">
         <v>161</v>
       </c>
@@ -3650,7 +3809,7 @@
       <c r="C16" s="45"/>
       <c r="D16" s="42"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="43" t="s">
         <v>162</v>
       </c>
@@ -3658,7 +3817,7 @@
       <c r="C17" s="45"/>
       <c r="D17" s="42"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="43" t="s">
         <v>163</v>
       </c>
@@ -3666,7 +3825,7 @@
       <c r="C18" s="45"/>
       <c r="D18" s="42"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>164</v>
       </c>
@@ -3674,7 +3833,7 @@
       <c r="C19" s="45"/>
       <c r="D19" s="42"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="43" t="s">
         <v>165</v>
       </c>
@@ -3682,7 +3841,7 @@
       <c r="C20" s="45"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="43" t="s">
         <v>166</v>
       </c>
@@ -3690,7 +3849,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="43" t="s">
         <v>167</v>
       </c>
@@ -3698,7 +3857,7 @@
       <c r="C22" s="45"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="43" t="s">
         <v>168</v>
       </c>
@@ -3706,7 +3865,7 @@
       <c r="C23" s="45"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>170</v>
       </c>
@@ -3714,7 +3873,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="43" t="s">
         <v>172</v>
       </c>
@@ -3722,33 +3881,38 @@
       <c r="C25" s="45"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12">
       <c r="A30" s="11"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>